--- a/derivatives/pairwise-comparisons/format_pairwise-output.xlsx
+++ b/derivatives/pairwise-comparisons/format_pairwise-output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/pairwise-comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5EBAE6E8-FDA7-0B49-8040-6373BCA7192A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F3C1CE9B-7068-0E49-A086-1DA6609F14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16060"/>
   </bookViews>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D596" sqref="D596"/>
+    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
+      <selection activeCell="B586" sqref="B586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,10 +1150,6 @@
       <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -1285,10 +1281,6 @@
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -1420,10 +1412,6 @@
       <c r="A46" t="s">
         <v>3</v>
       </c>
-      <c r="B46" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -1555,10 +1543,6 @@
       <c r="A61" t="s">
         <v>4</v>
       </c>
-      <c r="B61" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -1690,10 +1674,6 @@
       <c r="A76" t="s">
         <v>5</v>
       </c>
-      <c r="B76" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -1825,10 +1805,6 @@
       <c r="A91" t="s">
         <v>6</v>
       </c>
-      <c r="B91" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
@@ -1960,10 +1936,6 @@
       <c r="A106" t="s">
         <v>7</v>
       </c>
-      <c r="B106" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
@@ -2095,10 +2067,6 @@
       <c r="A121" t="s">
         <v>8</v>
       </c>
-      <c r="B121" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
@@ -2230,10 +2198,6 @@
       <c r="A136" t="s">
         <v>9</v>
       </c>
-      <c r="B136" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
@@ -2365,10 +2329,6 @@
       <c r="A151" t="s">
         <v>10</v>
       </c>
-      <c r="B151" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
@@ -2500,10 +2460,6 @@
       <c r="A166" t="s">
         <v>11</v>
       </c>
-      <c r="B166" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
@@ -2635,10 +2591,6 @@
       <c r="A181" t="s">
         <v>12</v>
       </c>
-      <c r="B181" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
@@ -2770,10 +2722,6 @@
       <c r="A196" t="s">
         <v>13</v>
       </c>
-      <c r="B196" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
@@ -2905,10 +2853,6 @@
       <c r="A211" t="s">
         <v>14</v>
       </c>
-      <c r="B211" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
@@ -3040,10 +2984,6 @@
       <c r="A226" t="s">
         <v>15</v>
       </c>
-      <c r="B226" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
@@ -3175,10 +3115,6 @@
       <c r="A241" t="s">
         <v>16</v>
       </c>
-      <c r="B241" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
@@ -3310,10 +3246,6 @@
       <c r="A256" t="s">
         <v>17</v>
       </c>
-      <c r="B256" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
@@ -3445,10 +3377,6 @@
       <c r="A271" t="s">
         <v>18</v>
       </c>
-      <c r="B271" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
@@ -3580,10 +3508,6 @@
       <c r="A286" t="s">
         <v>19</v>
       </c>
-      <c r="B286" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
@@ -3715,10 +3639,6 @@
       <c r="A301" t="s">
         <v>20</v>
       </c>
-      <c r="B301" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
@@ -3850,10 +3770,6 @@
       <c r="A316" t="s">
         <v>21</v>
       </c>
-      <c r="B316" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
@@ -3985,10 +3901,6 @@
       <c r="A331" t="s">
         <v>22</v>
       </c>
-      <c r="B331" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332">
@@ -4120,10 +4032,6 @@
       <c r="A346" t="s">
         <v>23</v>
       </c>
-      <c r="B346" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
@@ -4255,10 +4163,6 @@
       <c r="A361" t="s">
         <v>24</v>
       </c>
-      <c r="B361" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362">
@@ -4390,10 +4294,6 @@
       <c r="A376" t="s">
         <v>25</v>
       </c>
-      <c r="B376" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377">
@@ -4525,10 +4425,6 @@
       <c r="A391" t="s">
         <v>26</v>
       </c>
-      <c r="B391" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
@@ -4660,10 +4556,6 @@
       <c r="A406" t="s">
         <v>27</v>
       </c>
-      <c r="B406" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407">
@@ -4795,10 +4687,6 @@
       <c r="A421" t="s">
         <v>28</v>
       </c>
-      <c r="B421" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422">
@@ -4930,10 +4818,6 @@
       <c r="A436" t="s">
         <v>29</v>
       </c>
-      <c r="B436" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437">
@@ -5065,17 +4949,13 @@
       <c r="A451" t="s">
         <v>30</v>
       </c>
-      <c r="B451" t="e">
-        <f t="shared" ref="B451:B514" si="7">A451*10</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>0.94510000000000005</v>
       </c>
       <c r="B452">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="B451:B514" si="7">A452*10</f>
         <v>9.4510000000000005</v>
       </c>
     </row>
@@ -5200,10 +5080,6 @@
       <c r="A466" t="s">
         <v>31</v>
       </c>
-      <c r="B466" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467">
@@ -5335,10 +5211,6 @@
       <c r="A481" t="s">
         <v>32</v>
       </c>
-      <c r="B481" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482">
@@ -5470,10 +5342,6 @@
       <c r="A496" t="s">
         <v>33</v>
       </c>
-      <c r="B496" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497">
@@ -5605,10 +5473,6 @@
       <c r="A511" t="s">
         <v>34</v>
       </c>
-      <c r="B511" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512">
@@ -5740,10 +5604,6 @@
       <c r="A526" t="s">
         <v>35</v>
       </c>
-      <c r="B526" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527">
@@ -5875,10 +5735,6 @@
       <c r="A541" t="s">
         <v>36</v>
       </c>
-      <c r="B541" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542">
@@ -6010,10 +5866,6 @@
       <c r="A556" t="s">
         <v>37</v>
       </c>
-      <c r="B556" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557">
@@ -6145,10 +5997,6 @@
       <c r="A571" t="s">
         <v>38</v>
       </c>
-      <c r="B571" t="e">
-        <f t="shared" si="8"/>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572">
@@ -6279,10 +6127,6 @@
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>39</v>
-      </c>
-      <c r="B586" t="e">
-        <f t="shared" si="9"/>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
